--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cga-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cga-Lhcgr.xlsx
@@ -549,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N2">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01908887487466667</v>
+        <v>0.01800652155866666</v>
       </c>
       <c r="R2">
-        <v>0.114533249248</v>
+        <v>0.108039129352</v>
       </c>
       <c r="S2">
         <v>1</v>
